--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H2">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I2">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J2">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.922308333333334</v>
+        <v>0.048574</v>
       </c>
       <c r="N2">
-        <v>26.766925</v>
+        <v>0.145722</v>
       </c>
       <c r="O2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="P2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="Q2">
-        <v>11.31376058412222</v>
+        <v>0.02931439280866667</v>
       </c>
       <c r="R2">
-        <v>101.8238452571</v>
+        <v>0.263829535278</v>
       </c>
       <c r="S2">
-        <v>0.3454043543064926</v>
+        <v>0.001576051502470762</v>
       </c>
       <c r="T2">
-        <v>0.3454043543064926</v>
+        <v>0.001576051502470762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H3">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I3">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J3">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.613253666666666</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N3">
-        <v>16.839761</v>
+        <v>26.766925</v>
       </c>
       <c r="O3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="P3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="Q3">
-        <v>7.117777789112443</v>
+        <v>5.384610105063889</v>
       </c>
       <c r="R3">
-        <v>64.060000102012</v>
+        <v>48.461490945575</v>
       </c>
       <c r="S3">
-        <v>0.2173027635740996</v>
+        <v>0.2894967977571829</v>
       </c>
       <c r="T3">
-        <v>0.2173027635740996</v>
+        <v>0.2894967977571829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4194516666666666</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H4">
-        <v>1.258355</v>
+        <v>1.810499</v>
       </c>
       <c r="I4">
-        <v>0.1861377998535873</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J4">
-        <v>0.1861377998535873</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.922308333333334</v>
+        <v>4.534313</v>
       </c>
       <c r="N4">
-        <v>26.766925</v>
+        <v>13.602939</v>
       </c>
       <c r="O4">
-        <v>0.6138261687668722</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="P4">
-        <v>0.6138261687668722</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="Q4">
-        <v>3.742477100930555</v>
+        <v>2.736456384062333</v>
       </c>
       <c r="R4">
-        <v>33.68229390837499</v>
+        <v>24.628107456561</v>
       </c>
       <c r="S4">
-        <v>0.1142562525468224</v>
+        <v>0.1471221397521865</v>
       </c>
       <c r="T4">
-        <v>0.1142562525468224</v>
+        <v>0.1471221397521865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,45 +726,45 @@
         <v>1.258355</v>
       </c>
       <c r="I5">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J5">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.613253666666666</v>
+        <v>0.048574</v>
       </c>
       <c r="N5">
-        <v>16.839761</v>
+        <v>0.145722</v>
       </c>
       <c r="O5">
-        <v>0.3861738312331279</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="P5">
-        <v>0.3861738312331279</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="Q5">
-        <v>2.354488605906111</v>
+        <v>0.02037444525666667</v>
       </c>
       <c r="R5">
-        <v>21.190397453155</v>
+        <v>0.18337000731</v>
       </c>
       <c r="S5">
-        <v>0.07188154730676495</v>
+        <v>0.001095406453354349</v>
       </c>
       <c r="T5">
-        <v>0.07188154730676495</v>
+        <v>0.001095406453354349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5659646666666666</v>
+        <v>0.4194516666666666</v>
       </c>
       <c r="H6">
-        <v>1.697894</v>
+        <v>1.258355</v>
       </c>
       <c r="I6">
-        <v>0.2511550822658206</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J6">
-        <v>0.2511550822658206</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>26.766925</v>
       </c>
       <c r="O6">
-        <v>0.6138261687668722</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="P6">
-        <v>0.6138261687668722</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="Q6">
-        <v>5.049711261772221</v>
+        <v>3.742477100930555</v>
       </c>
       <c r="R6">
-        <v>45.44740135594999</v>
+        <v>33.68229390837499</v>
       </c>
       <c r="S6">
-        <v>0.1541655619135573</v>
+        <v>0.2012095797577021</v>
       </c>
       <c r="T6">
-        <v>0.1541655619135573</v>
+        <v>0.2012095797577021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5659646666666666</v>
+        <v>0.4194516666666666</v>
       </c>
       <c r="H7">
-        <v>1.697894</v>
+        <v>1.258355</v>
       </c>
       <c r="I7">
-        <v>0.2511550822658206</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J7">
-        <v>0.2511550822658206</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.613253666666666</v>
+        <v>4.534313</v>
       </c>
       <c r="N7">
-        <v>16.839761</v>
+        <v>13.602939</v>
       </c>
       <c r="O7">
-        <v>0.3861738312331279</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="P7">
-        <v>0.3861738312331279</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="Q7">
-        <v>3.176903240370443</v>
+        <v>1.901925145038333</v>
       </c>
       <c r="R7">
-        <v>28.592129163334</v>
+        <v>17.117326305345</v>
       </c>
       <c r="S7">
-        <v>0.09698952035226335</v>
+        <v>0.1022546160853238</v>
       </c>
       <c r="T7">
-        <v>0.09698952035226335</v>
+        <v>0.1022546160853238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3542886666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.062866</v>
+      </c>
+      <c r="I8">
+        <v>0.2572454086917797</v>
+      </c>
+      <c r="J8">
+        <v>0.2572454086917798</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.048574</v>
+      </c>
+      <c r="N8">
+        <v>0.145722</v>
+      </c>
+      <c r="O8">
+        <v>0.003596689925699211</v>
+      </c>
+      <c r="P8">
+        <v>0.003596689925699211</v>
+      </c>
+      <c r="Q8">
+        <v>0.01720921769466667</v>
+      </c>
+      <c r="R8">
+        <v>0.154882959252</v>
+      </c>
+      <c r="S8">
+        <v>0.0009252319698741003</v>
+      </c>
+      <c r="T8">
+        <v>0.0009252319698741005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3542886666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.062866</v>
+      </c>
+      <c r="I9">
+        <v>0.2572454086917797</v>
+      </c>
+      <c r="J9">
+        <v>0.2572454086917798</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.922308333333334</v>
+      </c>
+      <c r="N9">
+        <v>26.766925</v>
+      </c>
+      <c r="O9">
+        <v>0.6606574812962104</v>
+      </c>
+      <c r="P9">
+        <v>0.6606574812962104</v>
+      </c>
+      <c r="Q9">
+        <v>3.161072723005556</v>
+      </c>
+      <c r="R9">
+        <v>28.44965450705</v>
+      </c>
+      <c r="S9">
+        <v>0.1699511037813254</v>
+      </c>
+      <c r="T9">
+        <v>0.1699511037813255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3542886666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.062866</v>
+      </c>
+      <c r="I10">
+        <v>0.2572454086917797</v>
+      </c>
+      <c r="J10">
+        <v>0.2572454086917798</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.534313</v>
+      </c>
+      <c r="N10">
+        <v>13.602939</v>
+      </c>
+      <c r="O10">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="P10">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="Q10">
+        <v>1.606455707019333</v>
+      </c>
+      <c r="R10">
+        <v>14.458101363174</v>
+      </c>
+      <c r="S10">
+        <v>0.08636907294058019</v>
+      </c>
+      <c r="T10">
+        <v>0.0863690729405802</v>
       </c>
     </row>
   </sheetData>
